--- a/data/trans_dic/P15A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P15A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>1,72; 6,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0,79; 4,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>1,38; 5,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>1,1; 6,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>1,47; 6,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>2,94; 6,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>1,88; 5,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>1,55; 4,33</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>2,51; 4,92</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,75%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,62; 3,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>1,14; 3,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,42; 2,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,06; 4,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,79; 3,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,6; 2,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,21; 2,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>2,09; 4,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>1,02; 2,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>0,99; 2,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>0,5; 1,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>1,84; 4,02</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>3,65; 9,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>2,84; 7,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>2,22; 6,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,89; 3,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,34; 3,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>2,91; 7,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,63; 3,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>1,57; 4,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>2,22; 5,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>3,47; 6,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>1,73; 4,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>1,48; 3,32</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>3,26; 7,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>2,52; 5,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>2,73; 7,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,63; 6,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>1,21; 4,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>1,16; 3,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>2,81; 7,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,69; 4,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>2,55; 5,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>2,15; 4,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>3,2; 6,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,86; 4,19</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,47; 7,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>1,5; 6,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>0,92; 5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,29; 3,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>1,46; 7,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>2,2; 7,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,48; 4,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>1,93; 5,86</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>2,27; 6,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>1,06; 4,34</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>0,2; 1,84</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>1,44; 6,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,99; 5,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>3,46; 9,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>2,16; 6,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>2,0; 6,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>3,69; 10,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>6,01; 13,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>3,59; 7,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>2,07; 5,23</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>2,74; 6,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>5,54; 10,53</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>3,28; 6,04</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>2,78; 6,36</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>2,28; 5,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,48; 2,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>1,23; 3,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>1,71; 4,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>1,74; 4,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,28; 1,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,49</t>
+          <t>1,46; 4,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,82</t>
+          <t>2,67; 4,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>2,25; 4,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>0,58; 1,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>1,63; 3,39</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>2,34; 5,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,53; 2,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>1,42; 3,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>1,19; 3,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>2,26; 4,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0,91; 2,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>1,01; 2,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>1,09; 2,94</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>2,66; 4,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>0,89; 2,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>1,48; 2,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>1,36; 2,83</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>3,14; 4,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>2,3; 3,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,99</t>
+          <t>2,09; 3,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>1,76; 2,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,13</t>
+          <t>2,25; 3,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>2,26; 3,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,97; 3,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,17; 3,22</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,86; 3,72</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,41; 3,25</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>2,2; 2,96</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,1; 2,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,38%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,24; 6,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,28</t>
+          <t>1,29; 4,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 5,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,38</t>
+          <t>2,81; 6,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,1; 5,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,92</t>
+          <t>2,31; 4,6</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,49</t>
+          <t>1,03; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,81</t>
+          <t>2,0; 4,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,02</t>
+          <t>1,81; 4,06</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 3,59</t>
+          <t>0,88; 3,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,27</t>
+          <t>1,53; 4,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,32</t>
+          <t>1,44; 3,28</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,71</t>
+          <t>1,92; 6,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,83</t>
+          <t>0,6; 6,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,38</t>
+          <t>0,74; 3,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,69; 4,95</t>
+          <t>0,5; 4,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,15; 4,19</t>
+          <t>1,76; 4,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,19</t>
+          <t>0,73; 3,94</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,29; 3,74</t>
+          <t>0,28; 3,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,84</t>
+          <t>0,2; 1,82</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,39%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,58</t>
+          <t>2,1; 6,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,59; 7,69</t>
+          <t>3,61; 7,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,04</t>
+          <t>3,25; 6,0</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,24%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,64</t>
+          <t>1,18; 3,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,14</t>
+          <t>0,94; 3,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 3,39</t>
+          <t>1,27; 3,15</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,73%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,89</t>
+          <t>0,62; 2,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,94</t>
+          <t>1,09; 2,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,83</t>
+          <t>0,97; 2,53</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,31%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,76; 2,92</t>
+          <t>1,55; 2,78</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,22</t>
+          <t>2,03; 3,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,85</t>
+          <t>1,89; 2,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P15A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P15A-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 6,02</t>
+          <t>1,69; 6,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 6,98</t>
+          <t>2,34; 7,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,34</t>
+          <t>0,89; 4,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,91</t>
+          <t>1,24; 4,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,05</t>
+          <t>1,1; 5,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,38</t>
+          <t>1,0; 5,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 6,18</t>
+          <t>1,53; 5,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,15</t>
+          <t>2,9; 6,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,05</t>
+          <t>1,74; 5,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 5,11</t>
+          <t>2,08; 5,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,33</t>
+          <t>1,51; 4,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,31; 4,6</t>
+          <t>2,42; 4,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 3,18</t>
+          <t>0,63; 3,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,91</t>
+          <t>0,98; 3,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,5</t>
+          <t>0,42; 2,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,65</t>
+          <t>1,02; 4,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,16</t>
+          <t>0,81; 3,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,82</t>
+          <t>0,6; 2,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,12</t>
+          <t>0,24; 2,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,65</t>
+          <t>2,02; 4,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,73</t>
+          <t>0,97; 2,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,72</t>
+          <t>1,06; 2,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,83</t>
+          <t>0,5; 1,75</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,81; 4,06</t>
+          <t>1,73; 4,04</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,03</t>
+          <t>3,39; 9,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,5</t>
+          <t>2,66; 7,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,4</t>
+          <t>2,17; 6,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,55</t>
+          <t>0,83; 3,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,01</t>
+          <t>0,34; 3,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,91</t>
+          <t>2,95; 8,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,53</t>
+          <t>0,57; 3,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,15</t>
+          <t>1,47; 4,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,56</t>
+          <t>2,11; 5,21</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,88</t>
+          <t>3,41; 6,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,25</t>
+          <t>1,71; 4,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,28</t>
+          <t>1,44; 3,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,82</t>
+          <t>3,01; 7,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 6,36</t>
+          <t>2,05; 6,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,51</t>
+          <t>2,52; 7,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,8</t>
+          <t>0,58; 6,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,8</t>
+          <t>1,43; 4,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,78</t>
+          <t>0,74; 3,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,87</t>
+          <t>2,75; 7,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,32</t>
+          <t>0,51; 4,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,24</t>
+          <t>2,58; 5,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,25</t>
+          <t>1,62; 4,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,5</t>
+          <t>3,34; 6,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,94</t>
+          <t>0,67; 3,78</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,39</t>
+          <t>1,52; 6,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,92</t>
+          <t>1,36; 6,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,35</t>
+          <t>0,92; 5,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,72</t>
+          <t>0,29; 3,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 7,99</t>
+          <t>1,5; 7,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,87</t>
+          <t>1,9; 7,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,16</t>
+          <t>0,48; 4,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,45</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 5,86</t>
+          <t>2,19; 5,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 6,23</t>
+          <t>2,25; 6,05</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,34</t>
+          <t>0,96; 4,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,82</t>
+          <t>0,14; 1,64</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 6,45</t>
+          <t>1,41; 6,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,38</t>
+          <t>1,02; 5,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,24</t>
+          <t>3,36; 9,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,55</t>
+          <t>2,25; 6,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,92</t>
+          <t>1,88; 6,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,53</t>
+          <t>3,67; 9,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,01; 13,23</t>
+          <t>6,17; 13,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,61; 7,7</t>
+          <t>3,67; 7,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,07; 5,23</t>
+          <t>2,21; 5,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,46</t>
+          <t>2,76; 6,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,54; 10,53</t>
+          <t>5,54; 10,24</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,0</t>
+          <t>3,31; 6,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,36</t>
+          <t>2,89; 6,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,24</t>
+          <t>2,06; 5,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,45</t>
+          <t>0,48; 2,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,47</t>
+          <t>1,13; 3,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,31</t>
+          <t>1,75; 4,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,24</t>
+          <t>1,74; 4,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,89</t>
+          <t>0,27; 1,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,72</t>
+          <t>1,04; 3,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,87</t>
+          <t>2,66; 4,9</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,18</t>
+          <t>2,29; 4,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,81</t>
+          <t>0,52; 1,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,15</t>
+          <t>1,32; 3,09</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,15</t>
+          <t>2,32; 5,24</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,4</t>
+          <t>0,51; 2,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,63</t>
+          <t>1,38; 3,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,97</t>
+          <t>0,59; 3,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,95</t>
+          <t>2,34; 5,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,86</t>
+          <t>1,0; 2,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,98</t>
+          <t>1,04; 3,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,89</t>
+          <t>1,12; 2,95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,59</t>
+          <t>2,62; 4,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,16</t>
+          <t>0,92; 2,25</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,89</t>
+          <t>1,38; 2,89</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,53</t>
+          <t>1,01; 2,55</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,14; 4,49</t>
+          <t>3,12; 4,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,5</t>
+          <t>2,34; 3,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,21</t>
+          <t>2,14; 3,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,78</t>
+          <t>1,58; 2,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,37</t>
+          <t>2,23; 3,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,38</t>
+          <t>2,25; 3,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,11</t>
+          <t>2,0; 3,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,07</t>
+          <t>1,99; 3,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>2,86; 3,72</t>
+          <t>2,85; 3,77</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>2,41; 3,25</t>
+          <t>2,39; 3,24</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,96</t>
+          <t>2,17; 2,97</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,89; 2,72</t>
+          <t>1,89; 2,71</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha tenido un accidente en los últimos tres meses que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9294</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12181</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6146</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7912</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7088</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>7036</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9108</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12374</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16381</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19217</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15254</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>20287</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4616; 16720</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6911; 20791</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2607; 13270</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3866; 15035</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2882; 15445</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2859; 14588</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4404; 17171</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8392; 18184</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9291; 26959</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12083; 30735</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>8778; 25622</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14517; 28116</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7852</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>10875</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6222</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11798</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>8964</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7349</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4350</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>16114</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16815</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18225</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10572</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27912</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3084; 15327</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4973; 19060</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2095; 13274</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5284; 25136</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4059; 15914</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3120; 14117</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1269; 10737</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>10388; 24049</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9656; 27025</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10949; 30628</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5139; 17921</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17876; 41699</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18229</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15302</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12544</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5767</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16928</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5851</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9048</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>22434</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32229</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>18395</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14814</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10818; 29102</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8616; 24080</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6907; 20725</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2625; 11646</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1140; 10362</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10049; 27441</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1915; 11605</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5148; 14294</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13782; 34056</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22666; 45825</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>11193; 27934</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9600; 22143</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17818</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14137</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16873</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7240</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9793</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>7090</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19048</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6773</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>27611</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>21227</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>35921</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>14013</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10788; 26949</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7682; 24471</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9307; 26359</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1802; 21286</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5316; 17882</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2863; 13377</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>10638; 29983</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2418; 20988</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>18827; 38280</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12356; 32842</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>25330; 50726</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>5265; 29782</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7319</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>7141</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5611</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2197</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>7806</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>9252</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15125</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>16393</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>8957</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>2737</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3094; 14002</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2892; 13562</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1938; 11360</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>524; 6006</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>3106; 15837</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4178; 16466</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1055; 8999</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2969</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>8986; 24112</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>9703; 26146</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4106; 17464</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>546; 6352</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8893</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>6842</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15427</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9652</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10602</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>17187</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>25371</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13481</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>19495</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>24029</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>40798</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>23133</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3809; 17464</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2808; 15471</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8845; 24209</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6078; 18005</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>5237; 18298</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>10267; 26088</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16864; 36785</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9432; 19923</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12135; 30383</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>15282; 35678</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>29683; 54890</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>17457; 32706</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>27284</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22783</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8180</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>13114</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>18415</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>19203</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>5757</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>19933</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>45700</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>41985</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>13937</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>33047</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17770; 39449</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>13628; 33533</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3176; 16740</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>7060; 21675</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>11150; 28876</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>12052; 30180</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1847; 12678</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>8800; 30580</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>33284; 61413</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>31097; 58022</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>7036; 23831</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>19392; 45578</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>26389</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>9054</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>18108</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>15250</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>26933</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>14287</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>14678</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>13223</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>53322</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>23341</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>32786</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>28473</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>17245; 38942</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>4012; 18038</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>10746; 27643</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>5437; 27946</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>18372; 39231</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>8209; 24429</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>8617; 24850</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>8020; 21142</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>40046; 69790</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>14809; 36002</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>22193; 46393</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>16604; 42061</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>123077</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>98315</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>89111</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>72930</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>93806</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>98331</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>87510</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>91486</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>216883</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>196646</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>176621</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>164416</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>102111; 144855</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>80016; 122151</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>72684; 108185</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>54522; 97424</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>75288; 115059</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>79889; 120306</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>71030; 110136</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>73012; 114774</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>189848; 251213</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>167014; 226559</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>150790; 205997</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>134783; 193208</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>